--- a/src/test/java/base/dataFiles/Localization.xlsx
+++ b/src/test/java/base/dataFiles/Localization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa473389\Source\Repos\SkeltaProjects\Specflow\Skelta_TestAutomation\Skelta_TestAutomation\Base\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa473389\Source\Repos\AppiumCucumber\src\test\java\base\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,9 +67,6 @@
     <t>en-US</t>
   </si>
   <si>
-    <t>사용자 이름</t>
-  </si>
-  <si>
     <t>zh-CN</t>
   </si>
   <si>
@@ -91,15 +88,6 @@
     <t>Logon</t>
   </si>
   <si>
-    <t>서버 경로</t>
-  </si>
-  <si>
-    <t>공급자</t>
-  </si>
-  <si>
-    <t>암호</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -543,154 +531,13 @@
     <t>AboutApp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>회사 소개</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>개인정보 보호정책</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>기술 지원</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>온라인 보기</t>
-    </r>
-  </si>
-  <si>
     <t>Work Tasks Pro</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>버전</t>
-    </r>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
     <t>Delete Account</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>도움말</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>계정 삭제</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>암호 표시</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>로그온</t>
-    </r>
-  </si>
-  <si>
-    <t>Log On</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>데모 모드</t>
-    </r>
-  </si>
-  <si>
     <t>DeleteAccountWarning</t>
-  </si>
-  <si>
-    <t>Are you sure you want to clear data and log out of this application?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>이 응용 프로그램의 데이터와 로그를 제거하시겠습니까?</t>
-    </r>
   </si>
   <si>
     <t>OK</t>
@@ -4265,50 +4112,1849 @@
     <t>Konto verwalten</t>
   </si>
   <si>
+    <t>Stufe</t>
+  </si>
+  <si>
+    <t>Warnungen</t>
+  </si>
+  <si>
+    <t>Informationen</t>
+  </si>
+  <si>
+    <t>Möchten Sie die ausgewählten Elemente wirklich löschen?</t>
+  </si>
+  <si>
+    <t>vor Minuten</t>
+  </si>
+  <si>
+    <t>Keine Aufgaben verfügbar</t>
+  </si>
+  <si>
+    <t>Kein Element verfügbar</t>
+  </si>
+  <si>
+    <t>Wollen Sie die Aufgabe wirklich genehmigen?</t>
+  </si>
+  <si>
+    <t>Die Aufgabe wurde erfolgreich genehmigt.</t>
+  </si>
+  <si>
+    <t>Wollen Sie die Aufgabe wirklich ablehnen?</t>
+  </si>
+  <si>
+    <t>Die Aufgabe wurde erfolgreich abgelehnt.</t>
+  </si>
+  <si>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>QRCodeScannerMessage</t>
+  </si>
+  <si>
+    <t>Netzwerkverbindung nicht verfügbar. Bitte verbinden Sie sich mit dem Internet und versuchen Sie es erneut.</t>
+  </si>
+  <si>
+    <t>Fehler beim Ausführen der Operation.</t>
+  </si>
+  <si>
+    <t>Unvollständige Geräteregistrierung. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
+  </si>
+  <si>
+    <t>Es konnten keine Subskriptionsinformationen für dieses Gerät gefunden werden. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
+  </si>
+  <si>
+    <t>Ungültiger Benutzername oder Passwort.</t>
+  </si>
+  <si>
+    <t>Ungültiges Token. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
+  </si>
+  <si>
+    <t>Das Gerät ist gesperrt. Bitte kontaktieren Sie Ihren Administrator.</t>
+  </si>
+  <si>
+    <t>Der Workflow Engine-Dienst ist nicht verfügbar.</t>
+  </si>
+  <si>
+    <t>Ungültige Lizenz. Bitte kontaktieren Sie Ihren Administrator.</t>
+  </si>
+  <si>
+    <t>Verbindung zum Server fehlgeschlagen.</t>
+  </si>
+  <si>
+    <t>Die Kamera-App ist deaktiviert.</t>
+  </si>
+  <si>
+    <t>Keine weiteren Aktionen erlaubt da der Status des Work Items verändert wurde.</t>
+  </si>
+  <si>
+    <t>Die Konto-Konfiguration der letzten Sitzung wurde nicht gelöscht. Sie erhalten irrelevante Benachrichtigungen. Bitte kontaktieren Sie Ihren Administrator.</t>
+  </si>
+  <si>
+    <t>Die Lizenz ist entweder nicht aktiviert oder Ihr System hat die Anzahl der Server-Cores oder Client-Verbindungen überschritten. Bitte kontaktieren Sie Ihren Administrator.</t>
+  </si>
+  <si>
+    <t>NFC ist entweder nicht verfügbar oder nicht aktiviert.</t>
+  </si>
+  <si>
+    <t>"Work Tasks Pro" ist nicht berechtigt, die Kamera zu verwenden. Gehen Sie zu "Einstellungen" und aktivieren die Kameraberechtigungen.</t>
+  </si>
+  <si>
+    <t>Es gibt einen Konflikt mit der Übertragung des Elementes. Bitte erneut synchronisieren um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Das Formular ist nicht verfügbar</t>
+  </si>
+  <si>
+    <t>Der gescannte QR Code ist ungültig</t>
+  </si>
+  <si>
+    <t>Es liegen keine Berechtigungen vor. Bitte kontaktieren Sie ihren Administrator</t>
+  </si>
+  <si>
+    <t>Ungültiger Serverpfad. Der Serverpfad beginnt mit 'http: //' oder 'https: //'</t>
+  </si>
+  <si>
+    <t>Konto Offline</t>
+  </si>
+  <si>
+    <t>Das Konto wurde manuell Offline genommen. Bitte geheb Sie mit dem Konto Online.</t>
+  </si>
+  <si>
+    <t>Netzwerkverbindung nicht verfügbar</t>
+  </si>
+  <si>
+    <t>Das Formular kann nicht im Online-Modus, oder wenn die Netzwerk-Verbindung aktiv ist, geöffnet werden.</t>
+  </si>
+  <si>
+    <t>La connessione di rete non e‘ disponibile. Riconnettersi e provare ancora.</t>
+  </si>
+  <si>
+    <t>Operazione non riuscita.</t>
+  </si>
+  <si>
+    <t>Registrazione del dispositivo incompleta. Reimpostare la connessione.</t>
+  </si>
+  <si>
+    <t>Registrazione del dispositivo non trovata. Reimpostare la connessione.</t>
+  </si>
+  <si>
+    <t>Nome utente o password errati</t>
+  </si>
+  <si>
+    <t>Sessione del token scaduta. Reimpostare la connessione.</t>
+  </si>
+  <si>
+    <t>Dispositivo bloccato. Contattare l’amministratore del sistema.</t>
+  </si>
+  <si>
+    <t>Workitem konnte nicht aktualisiert werden.</t>
+  </si>
+  <si>
+    <t>Il servizio „Workflow Engine“ non e‘ disponibile.</t>
+  </si>
+  <si>
+    <t>Licenza non valida. Contattare l’amministratore del sistema.</t>
+  </si>
+  <si>
+    <t>Connessione al server non riuscita.</t>
+  </si>
+  <si>
+    <t>La applicazione Camera e‘ disabilitata</t>
+  </si>
+  <si>
+    <t>Ulteriori operazioni non sono possibili poiche‘ lo stato del Work Item e‘ stato modificato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La configurazione del profilo durante la sessione non e’ andata a buon fine. Si potrebbe ricevere notifiche falsate. Contattare l’amministratore del sistema. </t>
+  </si>
+  <si>
+    <t>La licenza potrebbe non essere attivata oppure si e’ superato il limite ammesso di core oppure si e’ superato il limite ammesso di client connessi al sistema. Contattare l’amministratore del sistema.</t>
+  </si>
+  <si>
+    <t>NFC potrebbe essere non disponibile o non attivato.</t>
+  </si>
+  <si>
+    <t>"Work Tasks Pro" non ha i permessi per usare la camera. Andare in "Impostazioni", selezionare "Work Tasks Pro" e abilitare i permessi per utilizzare la Camera.</t>
+  </si>
+  <si>
+    <t>Trovato un conflitto durante l’inoltro dell’oggetto. Effettuare una nuova sincronizzazione prima di riprovare.</t>
+  </si>
+  <si>
+    <t>Form non disponible</t>
+  </si>
+  <si>
+    <t>Il codice QR scansionato non e‘ valido</t>
+  </si>
+  <si>
+    <t>Non si hanno privilegi a sufficienza. Contattare l’amministratore del sistema.</t>
+  </si>
+  <si>
+    <t>Percorso di rete del server errato. Accertarsi che il percorso inizi con 'http://' oppure 'https://'</t>
+  </si>
+  <si>
+    <t>Profilo disconnesso</t>
+  </si>
+  <si>
+    <t>Il profilo e‘ stato disconnesso manualmente. Riconnetterlo tramite le configurazioni della applicazione.</t>
+  </si>
+  <si>
+    <t>Connessione alla rete non disponibile.</t>
+  </si>
+  <si>
+    <t>Impossibile aprire il form in modalita’ online o mentre la connessione di rete e’ attiva.</t>
+  </si>
+  <si>
+    <t>Pas de connexion réseau. Connectez-vous à internet avant de réessayer.</t>
+  </si>
+  <si>
+    <t>Impossible de réaliser l'opération.</t>
+  </si>
+  <si>
+    <t>Enregistrement incomplet.
+Vérifier les paramètres de connexion.</t>
+  </si>
+  <si>
+    <t>Impossible de trouver les informations d'abonnement.
+Vérifier les paramètres de connexion.</t>
+  </si>
+  <si>
+    <t>Utilisateur ou Mot de Passe invalide.</t>
+  </si>
+  <si>
+    <t>Jeton de session invalide.
+Vérifier les paramètres de connexion.</t>
+  </si>
+  <si>
+    <t>Appareil verrouillé.
+Contactez votre administrateur.</t>
+  </si>
+  <si>
+    <t>Impossibile aggiornare il Work Item.</t>
+  </si>
+  <si>
+    <t>Service Workflow Engine non disponible.</t>
+  </si>
+  <si>
+    <t>Licence invalide.
+Contactez votre administrateur.</t>
+  </si>
+  <si>
+    <t>Echec de connexion au serveur.</t>
+  </si>
+  <si>
+    <t>L'accès à l'appareil photo est désactivé.</t>
+  </si>
+  <si>
+    <r>
+      <t>Aucune action n’est possible car la Tâche a été modifié</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>La configuration du compte n'a pas été effacée.
+Vous pouvez recevoir des notifications incohérentes.
+Contactez votre administrateur.</t>
+  </si>
+  <si>
+    <t>La licence n'est plus active ou vous avez atteint le nombre limite de connexion (Server Core Count ou Client Count).
+Contactez votre administrateur.</t>
+  </si>
+  <si>
+    <t>Le NFC n'est pas accessible ou est désactivé.</t>
+  </si>
+  <si>
+    <t>"Work Tasks Pro" n'a pas le droit d'utiliser l'appareil photo.
+Allez dans les "Réglages", sélectionner "Work Tasks Pro" et activer l'accès à l'appareil photo.</t>
+  </si>
+  <si>
+    <t>Une erreur d’envoi de l’élément. Resynchroniser pour réessayer.</t>
+  </si>
+  <si>
+    <t>Le formulaire n’est pas accessible.</t>
+  </si>
+  <si>
+    <t>Le QR Code est invalide.</t>
+  </si>
+  <si>
+    <t>Vous n’avez pas les droits. Contactez votre administrateur.</t>
+  </si>
+  <si>
+    <t>Chemin serveur invalide. Il doit commencer par "http://" ou "https://".</t>
+  </si>
+  <si>
+    <t>Compte hors ligne.</t>
+  </si>
+  <si>
+    <t>Le compte a été mis hors ligne manuellement.
+Reconnectez le depuis les réglages de l'application.</t>
+  </si>
+  <si>
+    <t>Connexion réseau non disponible.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ouverture du formulaire impossible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> En ligne ou avec connexion réseau activée.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conexão de rede indisponível. Conecte-se à Internet e tente novamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Falha ao executar a operação.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Registro do dispositivo incompleto. Defina novamente as configurações de conexão.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não é possível encontrar as informações de subscrição do dispositivo. Defina novamente as configurações de conexão.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nome de usuário ou senha inválidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Token de sessão inválido. Defina novamente as configurações de conexão.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>O dispositivo está bloqueado.  Entre em contato com o administrador.</t>
+    </r>
+  </si>
+  <si>
+    <t>Impossible de mettre à jour la liste de Tâches.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>O serviço Workflow Engine não está disponível.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Licença inválida. Entre em contato com o administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Falha ao conectar ao servidor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>O aplicativo da câmera está desativado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Não é possível realizar mais ações, pois o status do item de trabalho foi modificado.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>A configuração da conta da sessão não foi apagada. Você pode receber notificações irrelevantes. Entre em contato com o administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>A licença não está ativada ou seu sistema excedeu a contagem de núcleos do servidor ou o limite de contagem de conexões do cliente. Entre em contato com o administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>O NFC não está disponível ou não está ativado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>O Work Tasks Pro não tem permissão para usar a Câmera. Acesse "Configurações", clique em "Work Tasks Pro" e ative as permissões da Câmera.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Existe um conflito no envio deste item. Sincronize novamente para continuar.</t>
+    </r>
+  </si>
+  <si>
+    <t>O formulário está indisponível.</t>
+  </si>
+  <si>
+    <t>O código QR escaneado é inválido.</t>
+  </si>
+  <si>
+    <t>Você não tem direitos suficientes. Entre em contato com o administrador.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Caminho do servidor inválido. Comece o nome do caminho do servidor com 'http://' ou 'https://'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conta Off-line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>A conta foi desativada manualmente. Ative-a a partir das configurações do aplicativo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conexão de rede indisponível</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não é possível abrir o formulário no modo Online ou quando a conexão de rede está ativa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>网络连接不可用。请连接到 Internet，然后重试。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>无法执行操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>设备注册未完成。重新配置连接设置。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>找不到设备预订信息。重新配置连接设置。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户名或密码无效。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>会话口令无效。重新配置连接设置。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>设备已被阻止。请联系您的管理员。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não foi possível atualizar o item de trabalho.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>Workflow Engine 服务不可用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>许可证无效。请联系您的管理员。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>无法连接到服务器。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>“照相机”应用已禁用。</t>
+    </r>
+  </si>
+  <si>
+    <t>不允许执行进一步操作，因为工作项的状态已修改。</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>未从该会话中清除该账户配置。您可能收到了不相关的通知。请联系您的管理员。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>许可证未激活，或者您的系统超出了服务器核心计数或客户端连接计数限制。请联系您的管理员。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>NFC 不可用或者未启用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>Work Tasks Pro 无权使用“照相机”。请转至“设置”，轻点“Work Tasks Pro”，然后启用“照相机”权限。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>提交此项目时发生冲突。重新同步以继续。</t>
+    </r>
+  </si>
+  <si>
+    <t>表单不可用。</t>
+  </si>
+  <si>
+    <t>扫描的 QR 代码无效。</t>
+  </si>
+  <si>
+    <t>您的权限不足。请联系您的管理员。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>服务器路径无效。请以“http://”或“https://”作为服务器路径的开头</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>离线账户</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>该账户已手动离线。请在该应用设置中将其设置为上线。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>网络连接不可用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>该表单在处于“在线”模式时，或者网络连接处于活动状态时无法打开。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La conexión de red no está disponible. Conecte con Internet y vuelva a intentarlo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fallo al realizar la operación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Registro de dispositivo incompleto. Configure de nuevo los parámetros de conexión.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>No se encuentra la información de suscripción del dispositivo. Configure de nuevo los parámetros de conexión.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Id de usuario o contraseña no válidos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Token de sesión no válido. Configure de nuevo los parámetros de conexión.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>El dispositivo está bloqueado.  Póngase en contacto con su administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>无法更新工作项。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>El servicio Workflow Engine no está disponible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Licencia inválida. Póngase en contacto con su administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>No se puede conectar al servidor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La aplicación de cámara está desactivada.</t>
+    </r>
+  </si>
+  <si>
+    <t>No se permiten más acciones porque el estado del artículo de trabajo ha sido modificado.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La configuración de cuenta de la sesión no ha sido borrada. Es posible que reciba notificaciones sin importancia. Póngase en contacto con su administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La licencia no ha sido activada, su sistema supera la cuenta de núcleos servidor o el límite de conexiones. Póngase en contacto con su administrador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>NFC no está disponible o no ha sido activado.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Work Tasks Pro no tiene permiso para abrir la cámara. Vaya a "Settings", "Work Tasks Pro" y active los permisos de la Cámara.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Existe un conflicto al entregar este articulo. Vuelva a sincronizar para continuar.</t>
+    </r>
+  </si>
+  <si>
+    <t>El formulario no está disponible.</t>
+  </si>
+  <si>
+    <t>El código QR escaneado no es válido.</t>
+  </si>
+  <si>
+    <t>No dispone de permisos suficiente. Póngase en contacto con su administrador.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ruta de servidor no válida. Escriba la ruta con ’http://’ o ’https://’</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cuenta desconectada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La cuenta ha sido volcada manualmente a modo desconectado. Póngala en modo conectado en los parámetros de la aplicación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>La conexión de red no está disponible</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>No se puede abrir el formulario en modo conectado o cuando una conexión de red está activa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>将焦点对准此框中的 QR 代码。
+等待它自动扫描。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>您确定要清除数据并注销此应用程序吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>联系人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>技术支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>在线查看</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>隐私政策</t>
+    </r>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. 保留所有权利。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>帮助</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除账户</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>显示密码</t>
+    </r>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>供应器</t>
+  </si>
+  <si>
+    <t>服务器路径</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="2"/>
+      </rPr>
+      <t>演示模式</t>
+    </r>
+  </si>
+  <si>
+    <t>Demo Modus</t>
+  </si>
+  <si>
+    <t>Serverpfad</t>
+  </si>
+  <si>
+    <t>Repositorium</t>
+  </si>
+  <si>
+    <t>Anbieter</t>
+  </si>
+  <si>
+    <t>Benutzername</t>
+  </si>
+  <si>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t>Passwort anzeigen</t>
+  </si>
+  <si>
+    <t>Einloggen</t>
+  </si>
+  <si>
+    <t>Konto löschen</t>
+  </si>
+  <si>
+    <t>Über</t>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. Alle Rechte vorbehalten.</t>
+  </si>
+  <si>
+    <t>Datenschutz-Bestimmungen</t>
+  </si>
+  <si>
+    <t>Online ansehen</t>
+  </si>
+  <si>
+    <t>Technischer Support</t>
+  </si>
+  <si>
+    <t>Kontakt</t>
+  </si>
+  <si>
+    <t>Möchten Sie die Daten wirklich löschen und sich von dieser Anwendung abmelden?</t>
+  </si>
+  <si>
+    <t>Fokussieren Sie den QR-Code innerhalb des Rahmens.
+Warten Sie bis der QR-Code automatisch gescannt wird…</t>
+  </si>
+  <si>
+    <t>Modalita’ demo</t>
+  </si>
+  <si>
+    <t>Percorso di rete del server</t>
+  </si>
+  <si>
+    <t>Raccoglitore</t>
+  </si>
+  <si>
+    <t>Fornitore</t>
+  </si>
+  <si>
+    <t>Nome utente</t>
+  </si>
+  <si>
+    <t>Mostra password</t>
+  </si>
+  <si>
+    <t>Accedere</t>
+  </si>
+  <si>
+    <t>Elimina profilo</t>
+  </si>
+  <si>
+    <t>Informazioni su …</t>
+  </si>
+  <si>
+    <t> Versione</t>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. Tutti i diritti sono riservati.</t>
+  </si>
+  <si>
+    <t>Clausole di riservatezza</t>
+  </si>
+  <si>
+    <t>Mostra online</t>
+  </si>
+  <si>
+    <t>Supporto Tecnico</t>
+  </si>
+  <si>
+    <t>Contatto</t>
+  </si>
+  <si>
+    <t>Si e‘ sicuri di voler eliminare tutti i dati e disconnettersi dalla applicazione?</t>
+  </si>
+  <si>
+    <t>Inquadrare il codice QR nel riquadro.
+Attendere fino a che il codice QR non e‘ automaticamente scansionato…</t>
+  </si>
+  <si>
+    <r>
+      <t>Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Démo</t>
+    </r>
+  </si>
+  <si>
+    <t>Chemin du serveur</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>Afficher le mot de passe</t>
+  </si>
+  <si>
+    <t>Connecter</t>
+  </si>
+  <si>
+    <t>Supprimer le compte</t>
+  </si>
+  <si>
+    <t>A propos</t>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. Tout Droits Reservés.</t>
+  </si>
+  <si>
+    <t>Politique de Confidentialité</t>
+  </si>
+  <si>
+    <t>Voir en ligne</t>
+  </si>
+  <si>
+    <t>Support Technique</t>
+  </si>
+  <si>
+    <t>Voulez-vous vraiment effacer les données et vous déconnecter de l'application ?</t>
+  </si>
+  <si>
+    <t>Alligner le QR Code dans le cadre.
+Attendre le scan automatique.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modo de demonstração</t>
+    </r>
+  </si>
+  <si>
+    <t>Caminho do Servidor</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>Nome do Usuário</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mostrar Senha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fazer Login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excluir Conta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ajuda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sobre</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Versão</t>
+    </r>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. Todos os direitos reservados.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Política de Privacidade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ver On-Line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Suporte Técnico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contato</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tem certeza de que deseja apagar dados e sair desse aplicativo?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Focalize o código QR neste quadro._x000D_
+Aguarde até que seja analisado automaticamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modo Demo</t>
+    </r>
+  </si>
+  <si>
+    <t>Ruta del servidor</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Nombre de usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mostrar contraseña</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ingresar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eliminar cuenta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ayuda</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Acerca de </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Versión</t>
+    </r>
+  </si>
+  <si>
+    <t>Copyright © 2018 AVEVA Software, LLC. Reservados todos los derechos.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Política de privacidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ver en línea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Soporte técnico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contacto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>¿Seguro que desea borrar los datos y salir de esta aplicación?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>Encuadre el código QR en el marco.Espere hasta completar el escaneo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>데모 모드</t>
+    </r>
+  </si>
+  <si>
+    <t>서버 경로</t>
+  </si>
+  <si>
+    <t>공급자</t>
+  </si>
+  <si>
+    <t>사용자 이름</t>
+  </si>
+  <si>
+    <t>암호</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>암호 표시</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>로그온</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>계정 삭제</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>도움말</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>회사 소개</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>버전</t>
+    </r>
+  </si>
+  <si>
     <t>Copyright © 2018 AVEVA Software, LLC. All rights reserved.</t>
   </si>
   <si>
-    <t>Stufe</t>
-  </si>
-  <si>
-    <t>Warnungen</t>
-  </si>
-  <si>
-    <t>Informationen</t>
-  </si>
-  <si>
-    <t>Möchten Sie die ausgewählten Elemente wirklich löschen?</t>
-  </si>
-  <si>
-    <t>vor Minuten</t>
-  </si>
-  <si>
-    <t>Keine Aufgaben verfügbar</t>
-  </si>
-  <si>
-    <t>Kein Element verfügbar</t>
-  </si>
-  <si>
-    <t>Wollen Sie die Aufgabe wirklich genehmigen?</t>
-  </si>
-  <si>
-    <t>Die Aufgabe wurde erfolgreich genehmigt.</t>
-  </si>
-  <si>
-    <t>Wollen Sie die Aufgabe wirklich ablehnen?</t>
-  </si>
-  <si>
-    <t>Die Aufgabe wurde erfolgreich abgelehnt.</t>
-  </si>
-  <si>
-    <t>Aufgaben</t>
-  </si>
-  <si>
-    <t>QRCodeScannerMessage</t>
-  </si>
-  <si>
-    <t>Focus the QR code in this frame._x000D_
-Wait until it is automatically scanned.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>개인정보 보호정책</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>온라인 보기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>기술 지원</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>이 응용 프로그램의 데이터와 로그를 제거하시겠습니까?</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4466,1663 +6112,17 @@
     </r>
   </si>
   <si>
-    <t>Netzwerkverbindung nicht verfügbar. Bitte verbinden Sie sich mit dem Internet und versuchen Sie es erneut.</t>
-  </si>
-  <si>
-    <t>Fehler beim Ausführen der Operation.</t>
-  </si>
-  <si>
-    <t>Unvollständige Geräteregistrierung. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
-  </si>
-  <si>
-    <t>Es konnten keine Subskriptionsinformationen für dieses Gerät gefunden werden. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
-  </si>
-  <si>
-    <t>Ungültiger Benutzername oder Passwort.</t>
-  </si>
-  <si>
-    <t>Ungültiges Token. Konfigurieren Sie die Verbindungseinstellungen erneut.</t>
-  </si>
-  <si>
-    <t>Das Gerät ist gesperrt. Bitte kontaktieren Sie Ihren Administrator.</t>
-  </si>
-  <si>
-    <t>Der Workflow Engine-Dienst ist nicht verfügbar.</t>
-  </si>
-  <si>
-    <t>Ungültige Lizenz. Bitte kontaktieren Sie Ihren Administrator.</t>
-  </si>
-  <si>
-    <t>Verbindung zum Server fehlgeschlagen.</t>
-  </si>
-  <si>
-    <t>Die Kamera-App ist deaktiviert.</t>
-  </si>
-  <si>
-    <t>Keine weiteren Aktionen erlaubt da der Status des Work Items verändert wurde.</t>
-  </si>
-  <si>
-    <t>Die Konto-Konfiguration der letzten Sitzung wurde nicht gelöscht. Sie erhalten irrelevante Benachrichtigungen. Bitte kontaktieren Sie Ihren Administrator.</t>
-  </si>
-  <si>
-    <t>Die Lizenz ist entweder nicht aktiviert oder Ihr System hat die Anzahl der Server-Cores oder Client-Verbindungen überschritten. Bitte kontaktieren Sie Ihren Administrator.</t>
-  </si>
-  <si>
-    <t>NFC ist entweder nicht verfügbar oder nicht aktiviert.</t>
-  </si>
-  <si>
-    <t>"Work Tasks Pro" ist nicht berechtigt, die Kamera zu verwenden. Gehen Sie zu "Einstellungen" und aktivieren die Kameraberechtigungen.</t>
-  </si>
-  <si>
-    <t>Es gibt einen Konflikt mit der Übertragung des Elementes. Bitte erneut synchronisieren um fortzufahren.</t>
-  </si>
-  <si>
-    <t>Das Formular ist nicht verfügbar</t>
-  </si>
-  <si>
-    <t>Der gescannte QR Code ist ungültig</t>
-  </si>
-  <si>
-    <t>Es liegen keine Berechtigungen vor. Bitte kontaktieren Sie ihren Administrator</t>
-  </si>
-  <si>
-    <t>Ungültiger Serverpfad. Der Serverpfad beginnt mit 'http: //' oder 'https: //'</t>
-  </si>
-  <si>
-    <t>Konto Offline</t>
-  </si>
-  <si>
-    <t>Das Konto wurde manuell Offline genommen. Bitte geheb Sie mit dem Konto Online.</t>
-  </si>
-  <si>
-    <t>Netzwerkverbindung nicht verfügbar</t>
-  </si>
-  <si>
-    <t>Das Formular kann nicht im Online-Modus, oder wenn die Netzwerk-Verbindung aktiv ist, geöffnet werden.</t>
-  </si>
-  <si>
-    <t>La connessione di rete non e‘ disponibile. Riconnettersi e provare ancora.</t>
-  </si>
-  <si>
-    <t>Operazione non riuscita.</t>
-  </si>
-  <si>
-    <t>Registrazione del dispositivo incompleta. Reimpostare la connessione.</t>
-  </si>
-  <si>
-    <t>Registrazione del dispositivo non trovata. Reimpostare la connessione.</t>
-  </si>
-  <si>
-    <t>Nome utente o password errati</t>
-  </si>
-  <si>
-    <t>Sessione del token scaduta. Reimpostare la connessione.</t>
-  </si>
-  <si>
-    <t>Dispositivo bloccato. Contattare l’amministratore del sistema.</t>
-  </si>
-  <si>
-    <t>Workitem konnte nicht aktualisiert werden.</t>
-  </si>
-  <si>
-    <t>Il servizio „Workflow Engine“ non e‘ disponibile.</t>
-  </si>
-  <si>
-    <t>Licenza non valida. Contattare l’amministratore del sistema.</t>
-  </si>
-  <si>
-    <t>Connessione al server non riuscita.</t>
-  </si>
-  <si>
-    <t>La applicazione Camera e‘ disabilitata</t>
-  </si>
-  <si>
-    <t>Ulteriori operazioni non sono possibili poiche‘ lo stato del Work Item e‘ stato modificato.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La configurazione del profilo durante la sessione non e’ andata a buon fine. Si potrebbe ricevere notifiche falsate. Contattare l’amministratore del sistema. </t>
-  </si>
-  <si>
-    <t>La licenza potrebbe non essere attivata oppure si e’ superato il limite ammesso di core oppure si e’ superato il limite ammesso di client connessi al sistema. Contattare l’amministratore del sistema.</t>
-  </si>
-  <si>
-    <t>NFC potrebbe essere non disponibile o non attivato.</t>
-  </si>
-  <si>
-    <t>"Work Tasks Pro" non ha i permessi per usare la camera. Andare in "Impostazioni", selezionare "Work Tasks Pro" e abilitare i permessi per utilizzare la Camera.</t>
-  </si>
-  <si>
-    <t>Trovato un conflitto durante l’inoltro dell’oggetto. Effettuare una nuova sincronizzazione prima di riprovare.</t>
-  </si>
-  <si>
-    <t>Form non disponible</t>
-  </si>
-  <si>
-    <t>Il codice QR scansionato non e‘ valido</t>
-  </si>
-  <si>
-    <t>Non si hanno privilegi a sufficienza. Contattare l’amministratore del sistema.</t>
-  </si>
-  <si>
-    <t>Percorso di rete del server errato. Accertarsi che il percorso inizi con 'http://' oppure 'https://'</t>
-  </si>
-  <si>
-    <t>Profilo disconnesso</t>
-  </si>
-  <si>
-    <t>Il profilo e‘ stato disconnesso manualmente. Riconnetterlo tramite le configurazioni della applicazione.</t>
-  </si>
-  <si>
-    <t>Connessione alla rete non disponibile.</t>
-  </si>
-  <si>
-    <t>Impossibile aprire il form in modalita’ online o mentre la connessione di rete e’ attiva.</t>
-  </si>
-  <si>
-    <t>Pas de connexion réseau. Connectez-vous à internet avant de réessayer.</t>
-  </si>
-  <si>
-    <t>Impossible de réaliser l'opération.</t>
-  </si>
-  <si>
-    <t>Enregistrement incomplet.
-Vérifier les paramètres de connexion.</t>
-  </si>
-  <si>
-    <t>Impossible de trouver les informations d'abonnement.
-Vérifier les paramètres de connexion.</t>
-  </si>
-  <si>
-    <t>Utilisateur ou Mot de Passe invalide.</t>
-  </si>
-  <si>
-    <t>Jeton de session invalide.
-Vérifier les paramètres de connexion.</t>
-  </si>
-  <si>
-    <t>Appareil verrouillé.
-Contactez votre administrateur.</t>
-  </si>
-  <si>
-    <t>Impossibile aggiornare il Work Item.</t>
-  </si>
-  <si>
-    <t>Service Workflow Engine non disponible.</t>
-  </si>
-  <si>
-    <t>Licence invalide.
-Contactez votre administrateur.</t>
-  </si>
-  <si>
-    <t>Echec de connexion au serveur.</t>
-  </si>
-  <si>
-    <t>L'accès à l'appareil photo est désactivé.</t>
-  </si>
-  <si>
-    <r>
-      <t>Aucune action n’est possible car la Tâche a été modifié</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>La configuration du compte n'a pas été effacée.
-Vous pouvez recevoir des notifications incohérentes.
-Contactez votre administrateur.</t>
-  </si>
-  <si>
-    <t>La licence n'est plus active ou vous avez atteint le nombre limite de connexion (Server Core Count ou Client Count).
-Contactez votre administrateur.</t>
-  </si>
-  <si>
-    <t>Le NFC n'est pas accessible ou est désactivé.</t>
-  </si>
-  <si>
-    <t>"Work Tasks Pro" n'a pas le droit d'utiliser l'appareil photo.
-Allez dans les "Réglages", sélectionner "Work Tasks Pro" et activer l'accès à l'appareil photo.</t>
-  </si>
-  <si>
-    <t>Une erreur d’envoi de l’élément. Resynchroniser pour réessayer.</t>
-  </si>
-  <si>
-    <t>Le formulaire n’est pas accessible.</t>
-  </si>
-  <si>
-    <t>Le QR Code est invalide.</t>
-  </si>
-  <si>
-    <t>Vous n’avez pas les droits. Contactez votre administrateur.</t>
-  </si>
-  <si>
-    <t>Chemin serveur invalide. Il doit commencer par "http://" ou "https://".</t>
-  </si>
-  <si>
-    <t>Compte hors ligne.</t>
-  </si>
-  <si>
-    <t>Le compte a été mis hors ligne manuellement.
-Reconnectez le depuis les réglages de l'application.</t>
-  </si>
-  <si>
-    <t>Connexion réseau non disponible.</t>
-  </si>
-  <si>
-    <r>
-      <t>Ouverture du formulaire impossible</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En ligne ou avec connexion réseau activée.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conexão de rede indisponível. Conecte-se à Internet e tente novamente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Falha ao executar a operação.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Registro do dispositivo incompleto. Defina novamente as configurações de conexão.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não é possível encontrar as informações de subscrição do dispositivo. Defina novamente as configurações de conexão.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nome de usuário ou senha inválidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Token de sessão inválido. Defina novamente as configurações de conexão.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>O dispositivo está bloqueado.  Entre em contato com o administrador.</t>
-    </r>
-  </si>
-  <si>
-    <t>Impossible de mettre à jour la liste de Tâches.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>O serviço Workflow Engine não está disponível.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Licença inválida. Entre em contato com o administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Falha ao conectar ao servidor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>O aplicativo da câmera está desativado.</t>
-    </r>
-  </si>
-  <si>
-    <t>Não é possível realizar mais ações, pois o status do item de trabalho foi modificado.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>A configuração da conta da sessão não foi apagada. Você pode receber notificações irrelevantes. Entre em contato com o administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>A licença não está ativada ou seu sistema excedeu a contagem de núcleos do servidor ou o limite de contagem de conexões do cliente. Entre em contato com o administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>O NFC não está disponível ou não está ativado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>O Work Tasks Pro não tem permissão para usar a Câmera. Acesse "Configurações", clique em "Work Tasks Pro" e ative as permissões da Câmera.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Existe um conflito no envio deste item. Sincronize novamente para continuar.</t>
-    </r>
-  </si>
-  <si>
-    <t>O formulário está indisponível.</t>
-  </si>
-  <si>
-    <t>O código QR escaneado é inválido.</t>
-  </si>
-  <si>
-    <t>Você não tem direitos suficientes. Entre em contato com o administrador.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Caminho do servidor inválido. Comece o nome do caminho do servidor com 'http://' ou 'https://'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conta Off-line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>A conta foi desativada manualmente. Ative-a a partir das configurações do aplicativo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conexão de rede indisponível</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não é possível abrir o formulário no modo Online ou quando a conexão de rede está ativa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>网络连接不可用。请连接到 Internet，然后重试。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>无法执行操作。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>设备注册未完成。重新配置连接设置。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>找不到设备预订信息。重新配置连接设置。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>用户名或密码无效。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>会话口令无效。重新配置连接设置。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>设备已被阻止。请联系您的管理员。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não foi possível atualizar o item de trabalho.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>Workflow Engine 服务不可用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>许可证无效。请联系您的管理员。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>无法连接到服务器。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>“照相机”应用已禁用。</t>
-    </r>
-  </si>
-  <si>
-    <t>不允许执行进一步操作，因为工作项的状态已修改。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>未从该会话中清除该账户配置。您可能收到了不相关的通知。请联系您的管理员。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>许可证未激活，或者您的系统超出了服务器核心计数或客户端连接计数限制。请联系您的管理员。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>NFC 不可用或者未启用。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>Work Tasks Pro 无权使用“照相机”。请转至“设置”，轻点“Work Tasks Pro”，然后启用“照相机”权限。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>提交此项目时发生冲突。重新同步以继续。</t>
-    </r>
-  </si>
-  <si>
-    <t>表单不可用。</t>
-  </si>
-  <si>
-    <t>扫描的 QR 代码无效。</t>
-  </si>
-  <si>
-    <t>您的权限不足。请联系您的管理员。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>服务器路径无效。请以“http://”或“https://”作为服务器路径的开头</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>离线账户</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>该账户已手动离线。请在该应用设置中将其设置为上线。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>网络连接不可用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>该表单在处于“在线”模式时，或者网络连接处于活动状态时无法打开。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La conexión de red no está disponible. Conecte con Internet y vuelva a intentarlo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fallo al realizar la operación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Registro de dispositivo incompleto. Configure de nuevo los parámetros de conexión.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>No se encuentra la información de suscripción del dispositivo. Configure de nuevo los parámetros de conexión.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Id de usuario o contraseña no válidos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Token de sesión no válido. Configure de nuevo los parámetros de conexión.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>El dispositivo está bloqueado.  Póngase en contacto con su administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>无法更新工作项。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>El servicio Workflow Engine no está disponible.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Licencia inválida. Póngase en contacto con su administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>No se puede conectar al servidor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La aplicación de cámara está desactivada.</t>
-    </r>
-  </si>
-  <si>
-    <t>No se permiten más acciones porque el estado del artículo de trabajo ha sido modificado.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La configuración de cuenta de la sesión no ha sido borrada. Es posible que reciba notificaciones sin importancia. Póngase en contacto con su administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La licencia no ha sido activada, su sistema supera la cuenta de núcleos servidor o el límite de conexiones. Póngase en contacto con su administrador.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>NFC no está disponible o no ha sido activado.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Work Tasks Pro no tiene permiso para abrir la cámara. Vaya a "Settings", "Work Tasks Pro" y active los permisos de la Cámara.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Existe un conflicto al entregar este articulo. Vuelva a sincronizar para continuar.</t>
-    </r>
-  </si>
-  <si>
-    <t>El formulario no está disponible.</t>
-  </si>
-  <si>
-    <t>El código QR escaneado no es válido.</t>
-  </si>
-  <si>
-    <t>No dispone de permisos suficiente. Póngase en contacto con su administrador.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ruta de servidor no válida. Escriba la ruta con ’http://’ o ’https://’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cuenta desconectada</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La cuenta ha sido volcada manualmente a modo desconectado. Póngala en modo conectado en los parámetros de la aplicación.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>La conexión de red no está disponible</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>No se puede abrir el formulario en modo conectado o cuando una conexión de red está activa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Encuadre el código QR en el marco.Espere hasta completar el escaneo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>¿Seguro que desea borrar los datos y salir de esta aplicación?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contacto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Soporte técnico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ver en línea</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Política de privacidad</t>
-    </r>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. Reservados todos los derechos.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Versión</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Acerca de </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ayuda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Eliminar cuenta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ingresar</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mostrar contraseña</t>
-    </r>
-  </si>
-  <si>
-    <t>Contraseña</t>
-  </si>
-  <si>
-    <t>Nombre de usuario</t>
-  </si>
-  <si>
-    <t>Proveedor</t>
-  </si>
-  <si>
-    <t>Ruta del servidor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modo Demo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>将焦点对准此框中的 QR 代码。
-等待它自动扫描。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>您确定要清除数据并注销此应用程序吗？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>联系人</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>技术支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>在线查看</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>隐私政策</t>
-    </r>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. 保留所有权利。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>版本</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>帮助</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>删除账户</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>登录</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>显示密码</t>
-    </r>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>供应器</t>
-  </si>
-  <si>
-    <t>服务器路径</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="2"/>
-      </rPr>
-      <t>演示模式</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Focalize o código QR neste quadro._x000D_
-Aguarde até que seja analisado automaticamente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tem certeza de que deseja apagar dados e sair desse aplicativo?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Contato</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Suporte Técnico</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ver On-Line</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Política de Privacidade</t>
-    </r>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. Todos os direitos reservados.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Versão</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sobre</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ajuda</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Excluir Conta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fazer Login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mostrar Senha</t>
-    </r>
-  </si>
-  <si>
-    <t>Senha</t>
-  </si>
-  <si>
-    <t>Nome do Usuário</t>
-  </si>
-  <si>
-    <t>Fornecedor</t>
-  </si>
-  <si>
-    <t>Caminho do Servidor</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>Modo de demonstração</t>
-    </r>
-  </si>
-  <si>
-    <t>Alligner le QR Code dans le cadre.
-Attendre le scan automatique.</t>
-  </si>
-  <si>
-    <t>Voulez-vous vraiment effacer les données et vous déconnecter de l'application ?</t>
-  </si>
-  <si>
-    <t>Support Technique</t>
-  </si>
-  <si>
-    <t>Voir en ligne</t>
-  </si>
-  <si>
-    <t>Politique de Confidentialité</t>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. Tout Droits Reservés.</t>
-  </si>
-  <si>
-    <t>A propos</t>
-  </si>
-  <si>
-    <t>Supprimer le compte</t>
-  </si>
-  <si>
-    <t>Connecter</t>
-  </si>
-  <si>
-    <t>Afficher le mot de passe</t>
-  </si>
-  <si>
-    <t>Mot de passe</t>
-  </si>
-  <si>
-    <t>Utilisateur</t>
-  </si>
-  <si>
-    <t>Chemin du serveur</t>
-  </si>
-  <si>
-    <r>
-      <t>Mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Démo</t>
-    </r>
-  </si>
-  <si>
-    <t>Inquadrare il codice QR nel riquadro.
-Attendere fino a che il codice QR non e‘ automaticamente scansionato…</t>
-  </si>
-  <si>
-    <t>Si e‘ sicuri di voler eliminare tutti i dati e disconnettersi dalla applicazione?</t>
-  </si>
-  <si>
-    <t>Contatto</t>
-  </si>
-  <si>
-    <t>Supporto Tecnico</t>
-  </si>
-  <si>
-    <t>Mostra online</t>
-  </si>
-  <si>
-    <t>Clausole di riservatezza</t>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. Tutti i diritti sono riservati.</t>
-  </si>
-  <si>
-    <t> Versione</t>
-  </si>
-  <si>
-    <t>Informazioni su …</t>
-  </si>
-  <si>
-    <t>Elimina profilo</t>
-  </si>
-  <si>
-    <t>Accedere</t>
-  </si>
-  <si>
-    <t>Mostra password</t>
-  </si>
-  <si>
-    <t>Nome utente</t>
-  </si>
-  <si>
-    <t>Fornitore</t>
-  </si>
-  <si>
-    <t>Raccoglitore</t>
-  </si>
-  <si>
-    <t>Percorso di rete del server</t>
-  </si>
-  <si>
-    <t>Modalita’ demo</t>
-  </si>
-  <si>
-    <t>Fokussieren Sie den QR-Code innerhalb des Rahmens.
-Warten Sie bis der QR-Code automatisch gescannt wird…</t>
-  </si>
-  <si>
-    <t>Möchten Sie die Daten wirklich löschen und sich von dieser Anwendung abmelden?</t>
-  </si>
-  <si>
-    <t>Kontakt</t>
-  </si>
-  <si>
-    <t>Technischer Support</t>
-  </si>
-  <si>
-    <t>Online ansehen</t>
-  </si>
-  <si>
-    <t>Datenschutz-Bestimmungen</t>
-  </si>
-  <si>
-    <t>Copyright © 2018 AVEVA Software, LLC. Alle Rechte vorbehalten.</t>
-  </si>
-  <si>
-    <t>Über</t>
-  </si>
-  <si>
-    <t>Konto löschen</t>
-  </si>
-  <si>
-    <t>Einloggen</t>
-  </si>
-  <si>
-    <t>Passwort anzeigen</t>
-  </si>
-  <si>
-    <t>Passwort</t>
-  </si>
-  <si>
-    <t>Benutzername</t>
-  </si>
-  <si>
-    <t>Anbieter</t>
-  </si>
-  <si>
-    <t>Repositorium</t>
-  </si>
-  <si>
-    <t>Serverpfad</t>
-  </si>
-  <si>
-    <t>Demo Modus</t>
+    <t>Log On</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Are you sure you want to clear data and log out of this application?</t>
+  </si>
+  <si>
+    <t>Focus the QR code in this frame._x000D_
+Wait until it is automatically scanned.</t>
   </si>
 </sst>
 </file>
@@ -6243,15 +6243,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -6571,7 +6571,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6599,16 +6599,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -6617,46 +6617,46 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -6664,64 +6664,64 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>963</v>
+        <v>858</v>
       </c>
       <c r="C2" t="s">
-        <v>962</v>
+        <v>859</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>961</v>
+        <v>860</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>960</v>
+        <v>861</v>
       </c>
       <c r="F2" t="s">
-        <v>959</v>
+        <v>862</v>
       </c>
       <c r="G2" t="s">
-        <v>958</v>
+        <v>863</v>
       </c>
       <c r="H2" t="s">
-        <v>957</v>
+        <v>864</v>
       </c>
       <c r="I2" t="s">
-        <v>956</v>
+        <v>865</v>
       </c>
       <c r="J2" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>954</v>
+        <v>867</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>953</v>
+        <v>868</v>
       </c>
       <c r="P2" t="s">
-        <v>952</v>
+        <v>869</v>
       </c>
       <c r="Q2" t="s">
-        <v>951</v>
+        <v>870</v>
       </c>
       <c r="R2" t="s">
-        <v>950</v>
+        <v>871</v>
       </c>
       <c r="S2" t="s">
-        <v>949</v>
+        <v>872</v>
       </c>
       <c r="T2" t="s">
-        <v>948</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>947</v>
+        <v>873</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -6729,64 +6729,64 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>875</v>
       </c>
       <c r="C3" t="s">
-        <v>945</v>
+        <v>876</v>
       </c>
       <c r="D3" t="s">
-        <v>944</v>
+        <v>877</v>
       </c>
       <c r="E3" t="s">
-        <v>943</v>
+        <v>878</v>
       </c>
       <c r="F3" t="s">
-        <v>942</v>
+        <v>879</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>941</v>
+        <v>880</v>
       </c>
       <c r="I3" t="s">
-        <v>940</v>
+        <v>881</v>
       </c>
       <c r="J3" t="s">
-        <v>939</v>
+        <v>882</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>938</v>
+        <v>883</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>937</v>
+        <v>884</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>936</v>
+        <v>885</v>
       </c>
       <c r="P3" t="s">
-        <v>935</v>
+        <v>886</v>
       </c>
       <c r="Q3" t="s">
-        <v>934</v>
+        <v>887</v>
       </c>
       <c r="R3" t="s">
-        <v>933</v>
+        <v>888</v>
       </c>
       <c r="S3" t="s">
-        <v>932</v>
+        <v>889</v>
       </c>
       <c r="T3" t="s">
-        <v>931</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>930</v>
+        <v>890</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -6794,64 +6794,64 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="C4" t="s">
-        <v>928</v>
+        <v>893</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>927</v>
+        <v>894</v>
       </c>
       <c r="G4" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="H4" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="I4" t="s">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="J4" t="s">
-        <v>923</v>
+        <v>898</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="P4" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="Q4" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="R4" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T4" t="s">
-        <v>917</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>916</v>
+        <v>904</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -6859,129 +6859,129 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C5" t="s">
+        <v>907</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>908</v>
+      </c>
+      <c r="F5" t="s">
+        <v>909</v>
+      </c>
+      <c r="G5" t="s">
+        <v>910</v>
+      </c>
+      <c r="H5" t="s">
+        <v>911</v>
+      </c>
+      <c r="I5" t="s">
+        <v>912</v>
+      </c>
+      <c r="J5" t="s">
+        <v>913</v>
+      </c>
+      <c r="K5" t="s">
+        <v>914</v>
+      </c>
+      <c r="L5" t="s">
         <v>915</v>
       </c>
-      <c r="C5" t="s">
-        <v>914</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>913</v>
-      </c>
-      <c r="F5" t="s">
-        <v>912</v>
-      </c>
-      <c r="G5" t="s">
-        <v>911</v>
-      </c>
-      <c r="H5" t="s">
-        <v>910</v>
-      </c>
-      <c r="I5" t="s">
-        <v>909</v>
-      </c>
-      <c r="J5" t="s">
-        <v>908</v>
-      </c>
-      <c r="K5" t="s">
-        <v>907</v>
-      </c>
-      <c r="L5" t="s">
-        <v>906</v>
-      </c>
       <c r="M5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N5" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="P5" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="Q5" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="R5" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="S5" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="T5" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>898</v>
+        <v>923</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="C6" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="F6" t="s">
-        <v>894</v>
+        <v>854</v>
       </c>
       <c r="G6" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="H6" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="I6" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="J6" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="K6" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="L6" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="M6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="P6" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="Q6" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="R6" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="S6" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
       <c r="T6" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -6989,64 +6989,64 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>925</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>877</v>
+        <v>926</v>
       </c>
       <c r="F7" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
       <c r="G7" t="s">
-        <v>875</v>
+        <v>928</v>
       </c>
       <c r="H7" t="s">
-        <v>874</v>
+        <v>929</v>
       </c>
       <c r="I7" t="s">
-        <v>873</v>
+        <v>930</v>
       </c>
       <c r="J7" t="s">
-        <v>872</v>
+        <v>931</v>
       </c>
       <c r="K7" t="s">
-        <v>871</v>
+        <v>932</v>
       </c>
       <c r="L7" t="s">
-        <v>870</v>
+        <v>933</v>
       </c>
       <c r="M7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
-        <v>869</v>
+        <v>934</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>868</v>
+        <v>935</v>
       </c>
       <c r="P7" t="s">
-        <v>867</v>
+        <v>936</v>
       </c>
       <c r="Q7" t="s">
-        <v>866</v>
+        <v>937</v>
       </c>
       <c r="R7" t="s">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="S7" t="s">
-        <v>864</v>
+        <v>939</v>
       </c>
       <c r="T7" t="s">
-        <v>863</v>
+        <v>940</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>862</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -7054,64 +7054,64 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>942</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>943</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>944</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>945</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>946</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>947</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>948</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>949</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>950</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>951</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>952</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>691</v>
+        <v>953</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>954</v>
       </c>
       <c r="Q8" t="s">
-        <v>146</v>
+        <v>955</v>
       </c>
       <c r="R8" t="s">
-        <v>145</v>
+        <v>956</v>
       </c>
       <c r="S8" t="s">
-        <v>143</v>
+        <v>957</v>
       </c>
       <c r="T8" t="s">
-        <v>159</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>706</v>
+        <v>958</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7119,16 +7119,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -7137,46 +7137,46 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>960</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>961</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="P9" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>134</v>
+      </c>
+      <c r="R9" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="P9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" t="s">
-        <v>139</v>
-      </c>
       <c r="S9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="T9" t="s">
-        <v>158</v>
+        <v>962</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>705</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -7227,580 +7227,580 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="V1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="N1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>496</v>
+      <c r="J2" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="E2" s="13" t="s">
+    <row r="3" spans="1:27" s="12" customFormat="1">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="W3" s="12" t="s">
         <v>731</v>
       </c>
+      <c r="X3" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>735</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" s="13" customFormat="1">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="F3" s="13" t="s">
+    <row r="4" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="Q4" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="R4" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="S4" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="T4" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="U4" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="V4" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>757</v>
       </c>
+      <c r="X4" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>761</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>758</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>760</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>761</v>
-      </c>
-      <c r="F4" s="13" t="s">
+    <row r="5" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="S5" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>783</v>
       </c>
+      <c r="X5" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>787</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="F5" s="13" t="s">
+    <row r="6" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="N6" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="Q6" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="S6" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="T6" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="U6" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="V6" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="W6" s="12" t="s">
         <v>809</v>
       </c>
+      <c r="X6" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>813</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>810</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>811</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>813</v>
-      </c>
-      <c r="F6" s="13" t="s">
+    <row r="7" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="N7" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="Q7" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="S7" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="T7" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="U7" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="V7" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="W7" s="12" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="X7" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="Y7" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="Z7" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="AA7" s="12" t="s">
         <v>839</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>843</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="R7" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="S7" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="U7" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="X7" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -7808,82 +7808,82 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E8" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" t="s">
+        <v>485</v>
+      </c>
+      <c r="J8" t="s">
+        <v>486</v>
+      </c>
+      <c r="K8" t="s">
+        <v>487</v>
+      </c>
+      <c r="L8" t="s">
+        <v>488</v>
+      </c>
+      <c r="M8" t="s">
+        <v>489</v>
+      </c>
+      <c r="N8" t="s">
+        <v>490</v>
+      </c>
+      <c r="O8" t="s">
+        <v>491</v>
+      </c>
+      <c r="P8" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>493</v>
+      </c>
+      <c r="R8" t="s">
+        <v>494</v>
+      </c>
+      <c r="S8" t="s">
+        <v>495</v>
+      </c>
+      <c r="T8" t="s">
+        <v>496</v>
+      </c>
+      <c r="U8" t="s">
         <v>497</v>
       </c>
-      <c r="C8" t="s">
+      <c r="V8" t="s">
         <v>498</v>
       </c>
-      <c r="D8" t="s">
+      <c r="W8" t="s">
         <v>499</v>
       </c>
-      <c r="E8" t="s">
+      <c r="X8" t="s">
         <v>500</v>
       </c>
-      <c r="F8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="Y8" t="s">
         <v>501</v>
       </c>
-      <c r="H8" t="s">
+      <c r="Z8" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA8" t="s">
         <v>502</v>
-      </c>
-      <c r="I8" t="s">
-        <v>504</v>
-      </c>
-      <c r="J8" t="s">
-        <v>505</v>
-      </c>
-      <c r="K8" t="s">
-        <v>506</v>
-      </c>
-      <c r="L8" t="s">
-        <v>507</v>
-      </c>
-      <c r="M8" t="s">
-        <v>508</v>
-      </c>
-      <c r="N8" t="s">
-        <v>509</v>
-      </c>
-      <c r="O8" t="s">
-        <v>510</v>
-      </c>
-      <c r="P8" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>512</v>
-      </c>
-      <c r="R8" t="s">
-        <v>513</v>
-      </c>
-      <c r="S8" t="s">
-        <v>514</v>
-      </c>
-      <c r="T8" t="s">
-        <v>515</v>
-      </c>
-      <c r="U8" t="s">
-        <v>516</v>
-      </c>
-      <c r="V8" t="s">
-        <v>517</v>
-      </c>
-      <c r="W8" t="s">
-        <v>518</v>
-      </c>
-      <c r="X8" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>520</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -7891,82 +7891,82 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G9" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" t="s">
+        <v>484</v>
+      </c>
+      <c r="J9" t="s">
+        <v>509</v>
+      </c>
+      <c r="K9" t="s">
+        <v>510</v>
+      </c>
+      <c r="L9" t="s">
+        <v>511</v>
+      </c>
+      <c r="M9" t="s">
+        <v>512</v>
+      </c>
+      <c r="N9" t="s">
+        <v>513</v>
+      </c>
+      <c r="O9" t="s">
+        <v>514</v>
+      </c>
+      <c r="P9" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>516</v>
+      </c>
+      <c r="R9" t="s">
+        <v>517</v>
+      </c>
+      <c r="S9" t="s">
+        <v>518</v>
+      </c>
+      <c r="T9" t="s">
+        <v>519</v>
+      </c>
+      <c r="U9" t="s">
+        <v>520</v>
+      </c>
+      <c r="V9" t="s">
+        <v>521</v>
+      </c>
+      <c r="W9" t="s">
         <v>522</v>
       </c>
-      <c r="C9" t="s">
+      <c r="X9" t="s">
         <v>523</v>
       </c>
-      <c r="D9" t="s">
+      <c r="Y9" t="s">
         <v>524</v>
       </c>
-      <c r="E9" t="s">
+      <c r="Z9" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA9" t="s">
         <v>525</v>
-      </c>
-      <c r="F9" t="s">
-        <v>472</v>
-      </c>
-      <c r="G9" t="s">
-        <v>526</v>
-      </c>
-      <c r="H9" t="s">
-        <v>527</v>
-      </c>
-      <c r="I9" t="s">
-        <v>503</v>
-      </c>
-      <c r="J9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K9" t="s">
-        <v>529</v>
-      </c>
-      <c r="L9" t="s">
-        <v>530</v>
-      </c>
-      <c r="M9" t="s">
-        <v>531</v>
-      </c>
-      <c r="N9" t="s">
-        <v>532</v>
-      </c>
-      <c r="O9" t="s">
-        <v>533</v>
-      </c>
-      <c r="P9" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>535</v>
-      </c>
-      <c r="R9" t="s">
-        <v>536</v>
-      </c>
-      <c r="S9" t="s">
-        <v>537</v>
-      </c>
-      <c r="T9" t="s">
-        <v>538</v>
-      </c>
-      <c r="U9" t="s">
-        <v>539</v>
-      </c>
-      <c r="V9" t="s">
-        <v>540</v>
-      </c>
-      <c r="W9" t="s">
-        <v>541</v>
-      </c>
-      <c r="X9" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>543</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7995,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8006,10 +8006,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8017,10 +8017,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8028,10 +8028,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8039,21 +8039,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C5" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8061,10 +8061,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C7" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8072,10 +8072,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8083,10 +8083,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -8133,70 +8133,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -8204,70 +8204,70 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -8275,70 +8275,70 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -8346,70 +8346,70 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -8417,141 +8417,141 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -8559,70 +8559,70 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -8630,70 +8630,70 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -8701,70 +8701,70 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="N9" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -8798,34 +8798,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -8833,34 +8833,34 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8868,34 +8868,34 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8903,34 +8903,34 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8938,69 +8938,69 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J6" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9008,34 +9008,34 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" t="s">
         <v>215</v>
       </c>
-      <c r="D7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
         <v>223</v>
       </c>
-      <c r="H7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" t="s">
-        <v>240</v>
-      </c>
-      <c r="J7" t="s">
-        <v>242</v>
-      </c>
       <c r="K7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9043,34 +9043,34 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9078,34 +9078,34 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="J9" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -9141,37 +9141,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -9179,37 +9179,37 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9217,37 +9217,37 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9255,37 +9255,37 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9293,75 +9293,75 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9369,37 +9369,37 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9407,37 +9407,37 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9445,37 +9445,37 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -9510,19 +9510,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -9536,19 +9536,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9556,19 +9556,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9576,19 +9576,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9596,39 +9596,39 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
       <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
         <v>127</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9636,19 +9636,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" t="s">
-        <v>125</v>
-      </c>
       <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
         <v>128</v>
-      </c>
-      <c r="F7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9656,19 +9656,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
         <v>118</v>
       </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
         <v>129</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9676,19 +9676,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9732,64 +9732,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -9797,64 +9797,64 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="N2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="O2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="Q2" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="R2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="S2" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="T2" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -9862,64 +9862,64 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="J3" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="L3" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M3" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="O3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="P3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="Q3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="R3" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="S3" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="T3" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="U3" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -9927,64 +9927,64 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="J4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="L4" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="N4" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O4" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="P4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="Q4" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="R4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="S4" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="T4" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="U4" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -9992,129 +9992,129 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="L5" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="M5" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="N5" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O5" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="P5" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="Q5" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="R5" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="S5" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="T5" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="U5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="L6" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="M6" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="N6" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="O6" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="P6" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="Q6" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="R6" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="S6" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="T6" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="U6" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -10122,64 +10122,64 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="I7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="J7" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="M7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="N7" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="O7" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="P7" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="Q7" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="R7" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="S7" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="T7" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="U7" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -10187,64 +10187,64 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="H8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="K8" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="L8" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="N8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="O8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="P8" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="Q8" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="R8" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="S8" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="T8" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="U8" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -10252,64 +10252,64 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="I9" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="J9" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="L9" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="M9" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="N9" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="O9" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="P9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="Q9" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="R9" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="S9" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="T9" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="U9" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -10341,16 +10341,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10358,16 +10358,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10375,16 +10375,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10392,16 +10392,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10409,33 +10409,33 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10443,16 +10443,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10460,16 +10460,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1">
@@ -10477,16 +10477,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10519,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10533,13 +10533,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10547,13 +10547,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10561,13 +10561,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10575,27 +10575,27 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10603,13 +10603,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10617,13 +10617,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10631,13 +10631,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10673,7 +10673,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10681,7 +10681,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10689,7 +10689,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10697,15 +10697,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10713,7 +10713,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10721,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10729,7 +10729,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10791,15 +10791,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/base/dataFiles/Localization.xlsx
+++ b/src/test/java/base/dataFiles/Localization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa473389\Source\Repos\AppiumCucumber\src\test\java\base\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa473389\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="8955" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSettingsPage" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="MenuNav" sheetId="2" r:id="rId3"/>
     <sheet name="WorkItemFilter" sheetId="3" r:id="rId4"/>
     <sheet name="WorkItems" sheetId="8" r:id="rId5"/>
-    <sheet name="FillForms" sheetId="9" r:id="rId6"/>
+    <sheet name="FillForms" sheetId="15" r:id="rId6"/>
     <sheet name="Outbox" sheetId="10" r:id="rId7"/>
     <sheet name="Drafts" sheetId="11" r:id="rId8"/>
     <sheet name="SentItems" sheetId="12" r:id="rId9"/>
@@ -6218,7 +6218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6234,9 +6234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6570,7 +6567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -6720,7 +6717,7 @@
       <c r="T2" t="s">
         <v>873</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>874</v>
       </c>
     </row>
@@ -6785,7 +6782,7 @@
       <c r="T3" t="s">
         <v>890</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="14" t="s">
         <v>891</v>
       </c>
     </row>
@@ -6850,7 +6847,7 @@
       <c r="T4" t="s">
         <v>904</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>905</v>
       </c>
     </row>
@@ -6915,7 +6912,7 @@
       <c r="T5" t="s">
         <v>922</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="10" t="s">
         <v>923</v>
       </c>
     </row>
@@ -6980,7 +6977,7 @@
       <c r="T6" t="s">
         <v>841</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="10" t="s">
         <v>840</v>
       </c>
     </row>
@@ -7045,7 +7042,7 @@
       <c r="T7" t="s">
         <v>940</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>941</v>
       </c>
     </row>
@@ -7110,7 +7107,7 @@
       <c r="T8" t="s">
         <v>958</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="15" t="s">
         <v>959</v>
       </c>
     </row>
@@ -7175,7 +7172,7 @@
       <c r="T9" t="s">
         <v>962</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="10" t="s">
         <v>963</v>
       </c>
     </row>
@@ -7305,501 +7302,501 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:27" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="12" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="12" customFormat="1">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:27" s="11" customFormat="1">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="11" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:27" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="11" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="11" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="AA6" s="12" t="s">
+      <c r="AA6" s="11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:27" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="U7" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="V7" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="W7" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="X7" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="Y7" s="12" t="s">
+      <c r="Y7" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AA7" s="11" t="s">
         <v>839</v>
       </c>
     </row>
@@ -10320,23 +10317,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10472,14 +10467,14 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" customHeight="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>547</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -10488,13 +10483,9 @@
       <c r="E9" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
